--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhba</t>
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N2">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O2">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P2">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q2">
-        <v>33.22402697283064</v>
+        <v>0.3862655342186667</v>
       </c>
       <c r="R2">
-        <v>33.22402697283064</v>
+        <v>3.476389807968</v>
       </c>
       <c r="S2">
-        <v>0.1523382293450424</v>
+        <v>0.001547593242926753</v>
       </c>
       <c r="T2">
-        <v>0.1523382293450424</v>
+        <v>0.001547593242926753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N3">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P3">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q3">
-        <v>82.87831544457477</v>
+        <v>0.9623656538906668</v>
       </c>
       <c r="R3">
-        <v>82.87831544457477</v>
+        <v>8.661290885016001</v>
       </c>
       <c r="S3">
-        <v>0.3800122073176467</v>
+        <v>0.00385576876849399</v>
       </c>
       <c r="T3">
-        <v>0.3800122073176467</v>
+        <v>0.003855768768493992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N4">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O4">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P4">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q4">
-        <v>17.34245962171155</v>
+        <v>0.204504671448</v>
       </c>
       <c r="R4">
-        <v>17.34245962171155</v>
+        <v>1.840542043032</v>
       </c>
       <c r="S4">
-        <v>0.07951834355961407</v>
+        <v>0.0008193587561988224</v>
       </c>
       <c r="T4">
-        <v>0.07951834355961407</v>
+        <v>0.0008193587561988227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N5">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O5">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P5">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q5">
-        <v>16.65534499767955</v>
+        <v>0.1932567728373333</v>
       </c>
       <c r="R5">
-        <v>16.65534499767955</v>
+        <v>1.739310955536</v>
       </c>
       <c r="S5">
-        <v>0.07636779756265474</v>
+        <v>0.0007742934569553784</v>
       </c>
       <c r="T5">
-        <v>0.07636779756265474</v>
+        <v>0.0007742934569553787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J6">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N6">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O6">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P6">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q6">
-        <v>21.77936853860354</v>
+        <v>0.28506307368</v>
       </c>
       <c r="R6">
-        <v>21.77936853860354</v>
+        <v>2.56556766312</v>
       </c>
       <c r="S6">
-        <v>0.09986238098521845</v>
+        <v>0.001142120245150724</v>
       </c>
       <c r="T6">
-        <v>0.09986238098521845</v>
+        <v>0.001142120245150725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H7">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N7">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O7">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P7">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q7">
-        <v>4.486211758406518</v>
+        <v>34.34226596658444</v>
       </c>
       <c r="R7">
-        <v>4.486211758406518</v>
+        <v>309.08039369926</v>
       </c>
       <c r="S7">
-        <v>0.02057009995511485</v>
+        <v>0.137594100556205</v>
       </c>
       <c r="T7">
-        <v>0.02057009995511485</v>
+        <v>0.1375941005562051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H8">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N8">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O8">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P8">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q8">
-        <v>11.19098758162061</v>
+        <v>85.56242873149944</v>
       </c>
       <c r="R8">
-        <v>11.19098758162061</v>
+        <v>770.0618585834949</v>
       </c>
       <c r="S8">
-        <v>0.05131272118821043</v>
+        <v>0.3428103851437834</v>
       </c>
       <c r="T8">
-        <v>0.05131272118821043</v>
+        <v>0.3428103851437835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H9">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N9">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O9">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P9">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q9">
-        <v>2.341737391985508</v>
+        <v>18.182191254735</v>
       </c>
       <c r="R9">
-        <v>2.341737391985508</v>
+        <v>163.639721292615</v>
       </c>
       <c r="S9">
-        <v>0.01073729347071248</v>
+        <v>0.07284790858793104</v>
       </c>
       <c r="T9">
-        <v>0.01073729347071248</v>
+        <v>0.07284790858793105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H10">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J10">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N10">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O10">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P10">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q10">
-        <v>2.248956895863643</v>
+        <v>17.18215813908555</v>
       </c>
       <c r="R10">
-        <v>2.248956895863643</v>
+        <v>154.63942325177</v>
       </c>
       <c r="S10">
-        <v>0.01031187795715906</v>
+        <v>0.06884122314649596</v>
       </c>
       <c r="T10">
-        <v>0.01031187795715906</v>
+        <v>0.068841223146496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H11">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J11">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N11">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O11">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P11">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q11">
-        <v>2.940849383142301</v>
+        <v>25.34451310385</v>
       </c>
       <c r="R11">
-        <v>2.940849383142301</v>
+        <v>228.10061793465</v>
       </c>
       <c r="S11">
-        <v>0.01348433132939361</v>
+        <v>0.1015441289736777</v>
       </c>
       <c r="T11">
-        <v>0.01348433132939361</v>
+        <v>0.1015441289736777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H12">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N12">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O12">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P12">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q12">
-        <v>4.446937855668296</v>
+        <v>5.717259182894667</v>
       </c>
       <c r="R12">
-        <v>4.446937855668296</v>
+        <v>51.455332646052</v>
       </c>
       <c r="S12">
-        <v>0.02039002194086623</v>
+        <v>0.02290650056937212</v>
       </c>
       <c r="T12">
-        <v>0.02039002194086623</v>
+        <v>0.02290650056937213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H13">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I13">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J13">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N13">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O13">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P13">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q13">
-        <v>11.09301767259845</v>
+        <v>14.24433034942767</v>
       </c>
       <c r="R13">
-        <v>11.09301767259845</v>
+        <v>128.198973144849</v>
       </c>
       <c r="S13">
-        <v>0.05086351126908369</v>
+        <v>0.0570706611020368</v>
       </c>
       <c r="T13">
-        <v>0.05086351126908369</v>
+        <v>0.05707066110203683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H14">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I14">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J14">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N14">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O14">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P14">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q14">
-        <v>2.321236985066696</v>
+        <v>3.026949357897</v>
       </c>
       <c r="R14">
-        <v>2.321236985066696</v>
+        <v>27.242544221073</v>
       </c>
       <c r="S14">
-        <v>0.01064329536225264</v>
+        <v>0.01212763230982695</v>
       </c>
       <c r="T14">
-        <v>0.01064329536225264</v>
+        <v>0.01212763230982696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H15">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I15">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J15">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N15">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O15">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P15">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q15">
-        <v>2.229268722601404</v>
+        <v>2.860465046139333</v>
       </c>
       <c r="R15">
-        <v>2.229268722601404</v>
+        <v>25.744185415254</v>
       </c>
       <c r="S15">
-        <v>0.01022160408830323</v>
+        <v>0.01146060413075152</v>
       </c>
       <c r="T15">
-        <v>0.01022160408830323</v>
+        <v>0.01146060413075153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.537941</v>
+      </c>
+      <c r="H16">
+        <v>1.613823</v>
+      </c>
+      <c r="I16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.84347</v>
+      </c>
+      <c r="N16">
+        <v>23.53041</v>
+      </c>
+      <c r="O16">
+        <v>0.1403245332042314</v>
+      </c>
+      <c r="P16">
+        <v>0.1403245332042315</v>
+      </c>
+      <c r="Q16">
+        <v>4.21932409527</v>
+      </c>
+      <c r="R16">
+        <v>37.97391685743</v>
+      </c>
+      <c r="S16">
+        <v>0.01690494460699499</v>
+      </c>
+      <c r="T16">
+        <v>0.01690494460699499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.50239</v>
+      </c>
+      <c r="H17">
+        <v>1.50717</v>
+      </c>
+      <c r="I17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.62804133333333</v>
+      </c>
+      <c r="N17">
+        <v>31.884124</v>
+      </c>
+      <c r="O17">
+        <v>0.1901422379349035</v>
+      </c>
+      <c r="P17">
+        <v>0.1901422379349035</v>
+      </c>
+      <c r="Q17">
+        <v>5.339421685453334</v>
+      </c>
+      <c r="R17">
+        <v>48.05479516908</v>
+      </c>
+      <c r="S17">
+        <v>0.02139267470047247</v>
+      </c>
+      <c r="T17">
+        <v>0.02139267470047247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.50239</v>
+      </c>
+      <c r="H18">
+        <v>1.50717</v>
+      </c>
+      <c r="I18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.47935433333333</v>
+      </c>
+      <c r="N18">
+        <v>79.438063</v>
+      </c>
+      <c r="O18">
+        <v>0.4737320390559845</v>
+      </c>
+      <c r="P18">
+        <v>0.4737320390559846</v>
+      </c>
+      <c r="Q18">
+        <v>13.30296282352333</v>
+      </c>
+      <c r="R18">
+        <v>119.72666541171</v>
+      </c>
+      <c r="S18">
+        <v>0.0532990224412199</v>
+      </c>
+      <c r="T18">
+        <v>0.05329902244121992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.50239</v>
+      </c>
+      <c r="H19">
+        <v>1.50717</v>
+      </c>
+      <c r="I19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.626917</v>
+      </c>
+      <c r="N19">
+        <v>16.880751</v>
+      </c>
+      <c r="O19">
+        <v>0.1006690280454893</v>
+      </c>
+      <c r="P19">
+        <v>0.1006690280454894</v>
+      </c>
+      <c r="Q19">
+        <v>2.82690683163</v>
+      </c>
+      <c r="R19">
+        <v>25.44216148467</v>
+      </c>
+      <c r="S19">
+        <v>0.01132615137372679</v>
+      </c>
+      <c r="T19">
+        <v>0.01132615137372679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.50239</v>
+      </c>
+      <c r="H20">
+        <v>1.50717</v>
+      </c>
+      <c r="I20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.317432666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.952298</v>
+      </c>
+      <c r="O20">
+        <v>0.09513216175939111</v>
+      </c>
+      <c r="P20">
+        <v>0.09513216175939114</v>
+      </c>
+      <c r="Q20">
+        <v>2.671424997406666</v>
+      </c>
+      <c r="R20">
+        <v>24.04282497666</v>
+      </c>
+      <c r="S20">
+        <v>0.0107032052014036</v>
+      </c>
+      <c r="T20">
+        <v>0.01070320520140361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="H16">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="I16">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="J16">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.92848309088656</v>
-      </c>
-      <c r="N16">
-        <v>6.92848309088656</v>
-      </c>
-      <c r="O16">
-        <v>0.1267129969833396</v>
-      </c>
-      <c r="P16">
-        <v>0.1267129969833396</v>
-      </c>
-      <c r="Q16">
-        <v>2.915104135512191</v>
-      </c>
-      <c r="R16">
-        <v>2.915104135512191</v>
-      </c>
-      <c r="S16">
-        <v>0.01336628466872758</v>
-      </c>
-      <c r="T16">
-        <v>0.01336628466872758</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.50239</v>
+      </c>
+      <c r="H21">
+        <v>1.50717</v>
+      </c>
+      <c r="I21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.84347</v>
+      </c>
+      <c r="N21">
+        <v>23.53041</v>
+      </c>
+      <c r="O21">
+        <v>0.1403245332042314</v>
+      </c>
+      <c r="P21">
+        <v>0.1403245332042315</v>
+      </c>
+      <c r="Q21">
+        <v>3.9404808933</v>
+      </c>
+      <c r="R21">
+        <v>35.4643280397</v>
+      </c>
+      <c r="S21">
+        <v>0.01578774460602224</v>
+      </c>
+      <c r="T21">
+        <v>0.01578774460602225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.472129</v>
+      </c>
+      <c r="I22">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J22">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.62804133333333</v>
+      </c>
+      <c r="N22">
+        <v>31.884124</v>
+      </c>
+      <c r="O22">
+        <v>0.1901422379349035</v>
+      </c>
+      <c r="P22">
+        <v>0.1901422379349035</v>
+      </c>
+      <c r="Q22">
+        <v>1.672602175555111</v>
+      </c>
+      <c r="R22">
+        <v>15.053419579996</v>
+      </c>
+      <c r="S22">
+        <v>0.006701368865927112</v>
+      </c>
+      <c r="T22">
+        <v>0.006701368865927114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.472129</v>
+      </c>
+      <c r="I23">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J23">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>26.47935433333333</v>
+      </c>
+      <c r="N23">
+        <v>79.438063</v>
+      </c>
+      <c r="O23">
+        <v>0.4737320390559845</v>
+      </c>
+      <c r="P23">
+        <v>0.4737320390559846</v>
+      </c>
+      <c r="Q23">
+        <v>4.167223694014111</v>
+      </c>
+      <c r="R23">
+        <v>37.505013246127</v>
+      </c>
+      <c r="S23">
+        <v>0.01669620160045032</v>
+      </c>
+      <c r="T23">
+        <v>0.01669620160045033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.472129</v>
+      </c>
+      <c r="I24">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J24">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.626917</v>
+      </c>
+      <c r="N24">
+        <v>16.880751</v>
+      </c>
+      <c r="O24">
+        <v>0.1006690280454893</v>
+      </c>
+      <c r="P24">
+        <v>0.1006690280454894</v>
+      </c>
+      <c r="Q24">
+        <v>0.885543565431</v>
+      </c>
+      <c r="R24">
+        <v>7.969892088879001</v>
+      </c>
+      <c r="S24">
+        <v>0.003547977017805726</v>
+      </c>
+      <c r="T24">
+        <v>0.003547977017805727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.472129</v>
+      </c>
+      <c r="I25">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J25">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.317432666666666</v>
+      </c>
+      <c r="N25">
+        <v>15.952298</v>
+      </c>
+      <c r="O25">
+        <v>0.09513216175939111</v>
+      </c>
+      <c r="P25">
+        <v>0.09513216175939114</v>
+      </c>
+      <c r="Q25">
+        <v>0.8368380558268889</v>
+      </c>
+      <c r="R25">
+        <v>7.531542502442</v>
+      </c>
+      <c r="S25">
+        <v>0.003352835823784631</v>
+      </c>
+      <c r="T25">
+        <v>0.003352835823784632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.472129</v>
+      </c>
+      <c r="I26">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J26">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.84347</v>
+      </c>
+      <c r="N26">
+        <v>23.53041</v>
+      </c>
+      <c r="O26">
+        <v>0.1403245332042314</v>
+      </c>
+      <c r="P26">
+        <v>0.1403245332042315</v>
+      </c>
+      <c r="Q26">
+        <v>1.23437654921</v>
+      </c>
+      <c r="R26">
+        <v>11.10938894289</v>
+      </c>
+      <c r="S26">
+        <v>0.00494559477238578</v>
+      </c>
+      <c r="T26">
+        <v>0.004945594772385782</v>
       </c>
     </row>
   </sheetData>
